--- a/data/trans_orig/P14A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9979746-9FCC-402E-A0F8-E2719B2B18B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD617655-A557-4161-A4DB-CB956BA941F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6153CAC-E2C0-4BC0-BAF8-970990D41256}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AF08334-CBC0-49CA-BC7D-269AC17BE638}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="321">
   <si>
     <t>Población que recibe medicación o terapia por dolor de espalda en 2012 (Tasa respuesta: 13,48%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>85,28%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,55 +144,55 @@
     <t>66,89%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,325 +201,337 @@
     <t>52,65%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>67,84%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>57,16%</t>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>71,1%</t>
   </si>
   <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -531,115 +543,115 @@
     <t>28,72%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>53,21%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
   </si>
   <si>
     <t>46,79%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>69,94%</t>
   </si>
   <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>76,72%</t>
+    <t>77,07%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -648,13 +660,13 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>91,03%</t>
+    <t>91,3%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>89,88%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -666,13 +678,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,28%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>8,97%</t>
+    <t>8,7%</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -681,313 +693,313 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>72,94%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>94,72%</t>
   </si>
   <si>
     <t>83,76%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>27,06%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>16,24%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>68,77%</t>
+    <t>68,92%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>81,38%</t>
+    <t>81,52%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>31,23%</t>
+    <t>31,08%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>18,62%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>79,15%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>20,85%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>60,41%</t>
   </si>
   <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
   </si>
   <si>
     <t>39,59%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>79,16%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>79,27%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,73%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
 </sst>
 </file>
@@ -1399,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D568C346-B9D1-4A3F-9453-55DF4BC63CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9FE1A3-5CF5-43FC-A238-AAB59DC38C28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2775,13 +2787,13 @@
         <v>675714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2808,13 @@
         <v>118886</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -2811,13 +2823,13 @@
         <v>155829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>251</v>
@@ -2826,13 +2838,13 @@
         <v>274715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,7 +2900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B61F4C6-BAFB-4D20-9229-F300680F0604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DD3BA9-B336-4FBF-8ECF-43534BADFBE7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,7 +2941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3036,13 +3048,13 @@
         <v>8169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -3051,13 +3063,13 @@
         <v>37229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -3066,13 +3078,13 @@
         <v>45399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3099,13 @@
         <v>20278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3102,13 +3114,13 @@
         <v>19646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3117,13 +3129,13 @@
         <v>39923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>15879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3206,13 +3218,13 @@
         <v>25498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3221,13 +3233,13 @@
         <v>41377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>7135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3257,13 +3269,13 @@
         <v>10649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3272,13 +3284,13 @@
         <v>17784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3358,13 @@
         <v>22203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3361,13 +3373,13 @@
         <v>48908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3376,13 +3388,13 @@
         <v>71112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3409,13 @@
         <v>1800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3412,13 +3424,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3427,13 +3439,13 @@
         <v>2701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3513,13 @@
         <v>21688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3516,13 +3528,13 @@
         <v>62432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3531,13 +3543,13 @@
         <v>84120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3564,13 @@
         <v>8047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3567,13 +3579,13 @@
         <v>8261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3582,13 +3594,13 @@
         <v>16308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3668,13 @@
         <v>17270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3671,13 +3683,13 @@
         <v>29816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -3686,13 +3698,13 @@
         <v>47085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3719,13 @@
         <v>1957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3722,13 +3734,13 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3737,13 +3749,13 @@
         <v>3010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3823,13 @@
         <v>18980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3826,13 +3838,13 @@
         <v>25078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3841,13 +3853,13 @@
         <v>44058</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>5234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3877,13 +3889,13 @@
         <v>6376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3892,13 +3904,13 @@
         <v>11610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3978,13 @@
         <v>37410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -3981,13 +3993,13 @@
         <v>68526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -3996,13 +4008,13 @@
         <v>105936</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4029,13 @@
         <v>24820</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -4032,13 +4044,13 @@
         <v>44594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -4047,13 +4059,13 @@
         <v>69414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4133,13 @@
         <v>56309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4136,13 +4148,13 @@
         <v>92590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4151,13 +4163,13 @@
         <v>148899</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4184,13 @@
         <v>10310</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4187,13 +4199,13 @@
         <v>11183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4202,13 +4214,13 @@
         <v>21493</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4288,13 @@
         <v>197908</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -4291,13 +4303,13 @@
         <v>390078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>539</v>
@@ -4306,13 +4318,13 @@
         <v>587986</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>79580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -4342,13 +4354,13 @@
         <v>102663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>167</v>
@@ -4357,13 +4369,13 @@
         <v>182243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4431,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD617655-A557-4161-A4DB-CB956BA941F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC528F1A-1F11-4C49-BD59-A70676554738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AF08334-CBC0-49CA-BC7D-269AC17BE638}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF95BF4E-ECC5-4094-8DDB-E01AA339EC38}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="317">
   <si>
     <t>Población que recibe medicación o terapia por dolor de espalda en 2012 (Tasa respuesta: 13,48%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>85,28%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>79,96%</t>
   </si>
   <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>18,43%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,55 +144,55 @@
     <t>66,89%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -201,55 +201,49 @@
     <t>52,65%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>67,84%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>59,69%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>32,16%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>40,31%</t>
   </si>
   <si>
     <t>36,21%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -258,748 +252,742 @@
     <t>45,2%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por dolor de espalda en 2016 (Tasa respuesta: 10,75%)</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9FE1A3-5CF5-43FC-A238-AAB59DC38C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D07A84-2674-415D-8E71-B07EBC9787B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,7 +1687,7 @@
         <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>75975</v>
+        <v>75976</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -1801,7 +1789,7 @@
         <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>93135</v>
+        <v>93136</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -2003,7 +1991,7 @@
         <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
         <v>119</v>
@@ -2012,13 +2000,13 @@
         <v>125876</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2021,13 @@
         <v>24933</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -2048,13 +2036,13 @@
         <v>46520</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -2063,13 +2051,13 @@
         <v>71453</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,7 +2113,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2137,13 +2125,13 @@
         <v>14071</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -2152,13 +2140,13 @@
         <v>48370</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -2167,13 +2155,13 @@
         <v>62442</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2176,13 @@
         <v>17062</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2203,28 +2191,28 @@
         <v>21953</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>39014</v>
+        <v>39015</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,7 +2254,7 @@
         <v>94</v>
       </c>
       <c r="N18" s="7">
-        <v>101456</v>
+        <v>101457</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>32</v>
@@ -2280,7 +2268,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2280,13 @@
         <v>23192</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2307,13 +2295,13 @@
         <v>35844</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -2322,13 +2310,13 @@
         <v>59036</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2331,13 @@
         <v>13560</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -2358,13 +2346,13 @@
         <v>13128</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -2373,13 +2361,13 @@
         <v>26688</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2423,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2435,13 @@
         <v>46284</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -2462,13 +2450,13 @@
         <v>111082</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>146</v>
@@ -2477,13 +2465,13 @@
         <v>157366</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2486,13 @@
         <v>23767</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -2513,13 +2501,13 @@
         <v>29203</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -2528,13 +2516,13 @@
         <v>52971</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2578,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2590,13 @@
         <v>36476</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>88</v>
@@ -2617,13 +2605,13 @@
         <v>98296</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -2632,13 +2620,13 @@
         <v>134772</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2641,13 @@
         <v>27426</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -2668,13 +2656,13 @@
         <v>25425</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -2683,13 +2671,13 @@
         <v>52850</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2745,13 @@
         <v>187998</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>450</v>
@@ -2772,13 +2760,13 @@
         <v>487716</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="M28" s="7">
         <v>626</v>
@@ -2787,13 +2775,13 @@
         <v>675714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2796,13 @@
         <v>118886</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>141</v>
@@ -2823,13 +2811,13 @@
         <v>155829</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M29" s="7">
         <v>251</v>
@@ -2838,13 +2826,13 @@
         <v>274715</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DD3BA9-B336-4FBF-8ECF-43534BADFBE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD054188-0EBC-4ABB-B539-D466F1355C98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +2929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3048,13 +3036,13 @@
         <v>8169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -3063,13 +3051,13 @@
         <v>37229</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -3078,13 +3066,13 @@
         <v>45399</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3087,13 @@
         <v>20278</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -3114,13 +3102,13 @@
         <v>19646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -3129,13 +3117,13 @@
         <v>39923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3191,13 @@
         <v>15879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -3218,13 +3206,13 @@
         <v>25498</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3233,13 +3221,13 @@
         <v>41377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3242,13 @@
         <v>7135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -3269,13 +3257,13 @@
         <v>10649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3284,13 +3272,13 @@
         <v>17784</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3346,13 @@
         <v>22203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3373,13 +3361,13 @@
         <v>48908</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -3388,13 +3376,13 @@
         <v>71112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3397,13 @@
         <v>1800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3424,13 +3412,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -3439,13 +3427,13 @@
         <v>2701</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3501,13 @@
         <v>21688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -3528,13 +3516,13 @@
         <v>62432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>77</v>
@@ -3543,13 +3531,13 @@
         <v>84120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3552,13 @@
         <v>8047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3579,13 +3567,13 @@
         <v>8261</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -3594,13 +3582,13 @@
         <v>16308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,7 +3644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3668,13 +3656,13 @@
         <v>17270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3683,13 +3671,13 @@
         <v>29816</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -3698,13 +3686,13 @@
         <v>47085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3707,13 @@
         <v>1957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3734,13 +3722,13 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3749,13 +3737,13 @@
         <v>3010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3799,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3823,13 +3811,13 @@
         <v>18980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3838,13 +3826,13 @@
         <v>25078</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -3853,13 +3841,13 @@
         <v>44058</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3862,13 @@
         <v>5234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3889,13 +3877,13 @@
         <v>6376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3904,13 +3892,13 @@
         <v>11610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3954,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3978,13 +3966,13 @@
         <v>37410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -3993,13 +3981,13 @@
         <v>68526</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -4008,13 +3996,13 @@
         <v>105936</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4017,13 @@
         <v>24820</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -4044,13 +4032,13 @@
         <v>44594</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -4059,13 +4047,13 @@
         <v>69414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4109,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4133,13 +4121,13 @@
         <v>56309</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>78</v>
@@ -4148,13 +4136,13 @@
         <v>92590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>131</v>
@@ -4163,13 +4151,13 @@
         <v>148899</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4172,13 @@
         <v>10310</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -4199,13 +4187,13 @@
         <v>11183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -4214,13 +4202,13 @@
         <v>21493</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4276,13 @@
         <v>197908</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -4303,13 +4291,13 @@
         <v>390078</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>539</v>
@@ -4318,13 +4306,13 @@
         <v>587986</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4327,13 @@
         <v>79580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -4354,13 +4342,13 @@
         <v>102663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>167</v>
@@ -4369,13 +4357,13 @@
         <v>182243</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
